--- a/Output.xlsx
+++ b/Output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Umlauf Nr.1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,47 +437,47 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Zeit [s]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SoC [%]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zurückgelegte Distanz [m]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ist-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Soll-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Steigung im Intervall [t, t+1) [%]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Gewählte Beschleunigung im Intervall [t, t+1) [m/s²]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Abgerufene Batterieleistung im Intervall [t, t+1) [W]</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Gewählte Beschleunigung im Intervall [t, t+1) [m/s²]</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ist-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Kumulierter Energieverbrauch nach Intervall [t, t+1) [kWh]</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SoC [%]</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Soll-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Steigung im Intervall [t, t+1) [%]</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Zeit [s]</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Zurückgelegte Distanz [m]</t>
         </is>
       </c>
     </row>
@@ -486,33 +486,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37.89473684210527</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>99.9999969924812</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>37.89473684210527</v>
+      </c>
+      <c r="J2" t="n">
         <v>1.052631578947369e-05</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99.9999969924812</v>
-      </c>
-      <c r="G2" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -520,33 +520,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>99.99864625239418</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5144032921810699</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.02880658436214</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>17019.3250964519</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1.02880658436214</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="J3" t="n">
         <v>0.004738116620359448</v>
-      </c>
-      <c r="F3" t="n">
-        <v>99.99864625239418</v>
-      </c>
-      <c r="G3" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5144032921810699</v>
       </c>
     </row>
     <row r="4">
@@ -554,33 +554,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34013.11198130637</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>99.99594679906232</v>
       </c>
       <c r="D4" t="n">
         <v>2.05761316872428</v>
       </c>
       <c r="E4" t="n">
+        <v>2.05761316872428</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>34013.11198130637</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.01418620328183344</v>
-      </c>
-      <c r="F4" t="n">
-        <v>99.99594679906232</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.05761316872428</v>
       </c>
     </row>
     <row r="5">
@@ -588,33 +588,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>99.99189667113244</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.62962962962963</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.08641975308642</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>51031.61191665019</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3.08641975308642</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="J5" t="n">
         <v>0.02836165103645849</v>
-      </c>
-      <c r="F5" t="n">
-        <v>99.99189667113244</v>
-      </c>
-      <c r="G5" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.62962962962963</v>
       </c>
     </row>
     <row r="6">
@@ -622,33 +622,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>99.98676265204811</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.230452674897119</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.11522633744856</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>64688.6404626334</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>4.11522633744856</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="J6" t="n">
         <v>0.04633071783163444</v>
-      </c>
-      <c r="F6" t="n">
-        <v>99.98676265204811</v>
-      </c>
-      <c r="G6" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8.230452674897119</v>
       </c>
     </row>
     <row r="7">
@@ -656,33 +656,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>99.98033852499783</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.86008230452675</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.1440329218107</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>80944.00083341627</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>5.1440329218107</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="J7" t="n">
         <v>0.06881516250758339</v>
-      </c>
-      <c r="F7" t="n">
-        <v>99.98033852499783</v>
-      </c>
-      <c r="G7" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>12.86008230452675</v>
       </c>
     </row>
     <row r="8">
@@ -690,33 +690,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>99.97301238501612</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.17283950617284</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.9716506630086876</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>92309.36376947795</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.9716506630086876</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>6.17283950617284</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="J8" t="n">
         <v>0.09445665244354949</v>
-      </c>
-      <c r="F8" t="n">
-        <v>99.97301238501612</v>
-      </c>
-      <c r="G8" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>18.51851851851852</v>
       </c>
     </row>
     <row r="9">
@@ -724,33 +724,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>99.96523563569536</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25.17718335619571</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.144490169181528</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.8816830090264018</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>97987.04144175485</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.8816830090264018</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>7.144490169181528</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="J9" t="n">
         <v>0.1216752750662592</v>
-      </c>
-      <c r="F9" t="n">
-        <v>99.96523563569536</v>
-      </c>
-      <c r="G9" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>25.17718335619571</v>
       </c>
     </row>
     <row r="10">
@@ -758,33 +758,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>99.95721329902489</v>
+      </c>
+      <c r="D10" t="n">
+        <v>32.76251502989044</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.02617317820793</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.8000456933758091</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>101081.4420481137</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.8000456933758091</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>8.02617317820793</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="J10" t="n">
         <v>0.1497534534129574</v>
-      </c>
-      <c r="F10" t="n">
-        <v>99.95721329902489</v>
-      </c>
-      <c r="G10" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>32.76251502989044</v>
       </c>
     </row>
     <row r="11">
@@ -792,33 +792,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>99.94892256309366</v>
+      </c>
+      <c r="D11" t="n">
+        <v>41.18871105478627</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.826218871583739</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.7442224083688047</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>104463.2727333196</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.7442224083688047</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>8.826218871583739</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="J11" t="n">
         <v>0.1787710291722129</v>
-      </c>
-      <c r="F11" t="n">
-        <v>99.94892256309366</v>
-      </c>
-      <c r="G11" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>41.18871105478627</v>
       </c>
     </row>
     <row r="12">
@@ -826,33 +826,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>99.94359336754781</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50.38704113055441</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.570441279952544</v>
+      </c>
+      <c r="F12" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.7028767190149822</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>67147.86387781269</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0.7028767190149822</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>9.570441279952544</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="J12" t="n">
         <v>0.1974232135827164</v>
-      </c>
-      <c r="F12" t="n">
-        <v>99.94359336754781</v>
-      </c>
-      <c r="G12" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-3.7</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10</v>
-      </c>
-      <c r="J12" t="n">
-        <v>50.38704113055441</v>
       </c>
     </row>
     <row r="13">
@@ -860,33 +860,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>99.93841039467509</v>
+      </c>
+      <c r="D13" t="n">
+        <v>60.30892077001444</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10.27331799896753</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.6638280124030387</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>65305.45819627993</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.6638280124030387</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>10.27331799896753</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="J13" t="n">
         <v>0.2155636186372386</v>
-      </c>
-      <c r="F13" t="n">
-        <v>99.93841039467509</v>
-      </c>
-      <c r="G13" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11</v>
-      </c>
-      <c r="J13" t="n">
-        <v>60.30892077001444</v>
       </c>
     </row>
     <row r="14">
@@ -894,33 +894,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>99.9263922819535</v>
+      </c>
+      <c r="D14" t="n">
+        <v>70.91415277518348</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10.93714601137057</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.6269486783806476</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>151428.2202920164</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0.6269486783806476</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>10.93714601137057</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="J14" t="n">
         <v>0.2576270131627987</v>
-      </c>
-      <c r="F14" t="n">
-        <v>99.9263922819535</v>
-      </c>
-      <c r="G14" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12</v>
-      </c>
-      <c r="J14" t="n">
-        <v>70.91415277518348</v>
       </c>
     </row>
     <row r="15">
@@ -928,33 +928,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>99.9138903127033</v>
+      </c>
+      <c r="D15" t="n">
+        <v>82.16477312574438</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11.56409468975121</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.6091420889097003</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>157524.8125526304</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0.6091420889097003</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>11.56409468975121</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="J15" t="n">
         <v>0.3013839055385293</v>
-      </c>
-      <c r="F15" t="n">
-        <v>99.9138903127033</v>
-      </c>
-      <c r="G15" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13</v>
-      </c>
-      <c r="J15" t="n">
-        <v>82.16477312574438</v>
       </c>
     </row>
     <row r="16">
@@ -962,33 +962,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>99.8960787214337</v>
+      </c>
+      <c r="D16" t="n">
+        <v>94.03343885995044</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12.17323677866091</v>
+      </c>
+      <c r="F16" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.598193456592696</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>224426.0499971094</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0.598193456592696</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>12.17323677866091</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="J16" t="n">
         <v>0.3637244749821708</v>
-      </c>
-      <c r="F16" t="n">
-        <v>99.8960787214337</v>
-      </c>
-      <c r="G16" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>94.03343885995044</v>
       </c>
     </row>
     <row r="17">
@@ -996,33 +996,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>99.87585343336495</v>
+      </c>
+      <c r="D17" t="n">
+        <v>106.5057723669077</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12.77143023525361</v>
+      </c>
+      <c r="F17" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.5874416134186443</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>254838.62966634</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0.5874416134186443</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>12.77143023525361</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="J17" t="n">
         <v>0.4345129832228208</v>
-      </c>
-      <c r="F17" t="n">
-        <v>99.87585343336495</v>
-      </c>
-      <c r="G17" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I17" t="n">
-        <v>15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>106.5057723669077</v>
       </c>
     </row>
   </sheetData>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -2,15 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Umlauf Nr.1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Leer" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Umlauf Nr. 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Umlauf Nr. 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Umlauf Nr. 3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Umlauf Nr. 4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -63,9 +66,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -148,44 +151,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -212,14 +215,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -246,6 +250,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -257,166 +262,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -426,7 +407,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,593 +434,2231 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Zeit [s]</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Zeit [s]</t>
+          <t>SoC [%]</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SoC [%]</t>
+          <t>Zurückgelegte Distanz [m]</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Zurückgelegte Distanz [m]</t>
+          <t>Ist-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ist-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+          <t>Soll-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Soll-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+          <t>Steigung im Intervall [t, t+1) [%]</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Steigung im Intervall [t, t+1) [%]</t>
+          <t>Gewählte Beschleunigung im Intervall [t, t+1) [m/s²]</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Gewählte Beschleunigung im Intervall [t, t+1) [m/s²]</t>
+          <t>Abgerufene Batterieleistung im Intervall [t, t+1) [W]</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Abgerufene Batterieleistung im Intervall [t, t+1) [W]</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>Kumulierter Energieverbrauch nach Intervall [t, t+1) [kWh]</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>37.89473684210527</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.052631578947369e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>99.9999969924812</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="C3" t="n">
+        <v>0.5144032921810699</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02880658436214</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>1.02880658436214</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>37.89473684210527</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.052631578947369e-05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="H3" t="n">
+        <v>17019.3250964519</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.004738116620359448</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>99.99864625239418</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5144032921810699</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.02880658436214</v>
-      </c>
-      <c r="F3" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>17019.3250964519</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.004738116620359448</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
       <c r="C4" t="n">
-        <v>99.99594679906232</v>
+        <v>2.05761316872428</v>
       </c>
       <c r="D4" t="n">
         <v>2.05761316872428</v>
       </c>
       <c r="E4" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>34013.11198130637</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01418620328183344</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>99.99594679906232</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.62962962962963</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.08641975308642</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>51031.61191665019</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02836165103645849</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>99.99189667113244</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.230452674897119</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.11522633744856</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>64688.6404626334</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.04633071783163444</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>99.98676265204811</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.86008230452675</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.1440329218107</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>80944.00083341627</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06881516250758339</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>99.98033852499783</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.17283950617284</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9716506630086876</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>92309.36376947795</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.09445665244354949</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>99.97301238501612</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.17718335619571</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.144490169181528</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8816830090264018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>97987.04144175485</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1216752750662592</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>99.96523563569536</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32.76251502989044</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.02617317820793</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8000456933758091</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>101081.4420481137</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1497534534129574</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>99.95721329902489</v>
+      </c>
+      <c r="C11" t="n">
+        <v>41.18871105478627</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.826218871583739</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7442224083688047</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>104463.2727333196</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1787710291722129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>99.94892256309366</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50.38704113055441</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.570441279952544</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7028767190149822</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>67147.86387781269</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1974232135827164</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>99.94359336754781</v>
+      </c>
+      <c r="C13" t="n">
+        <v>60.30892077001444</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10.27331799896753</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6638280124030387</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>65305.45819627993</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2155636186372386</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>99.93841039467509</v>
+      </c>
+      <c r="C14" t="n">
+        <v>70.91415277518348</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.93714601137057</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6269486783806476</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>151428.2202920164</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2576270131627987</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>99.9263922819535</v>
+      </c>
+      <c r="C15" t="n">
+        <v>82.16477312574438</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.56409468975121</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6091420889097003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>157524.8125526304</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3013839055385293</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>99.9138903127033</v>
+      </c>
+      <c r="C16" t="n">
+        <v>94.03343885995044</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.17323677866091</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.598193456592696</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>224426.0499971094</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3637244749821708</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>99.8960787214337</v>
+      </c>
+      <c r="C17" t="n">
+        <v>106.5057723669077</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.77143023525361</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5874416134186443</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>254838.62966634</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4345129832228208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Zeit [s]</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SoC [%]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Zurückgelegte Distanz [m]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ist-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Soll-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Steigung im Intervall [t, t+1) [%]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Gewählte Beschleunigung im Intervall [t, t+1) [m/s²]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Abgerufene Batterieleistung im Intervall [t, t+1) [W]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Kumulierter Energieverbrauch nach Intervall [t, t+1) [kWh]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>99.87585343336495</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>37.89473684210527</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.052631578947369e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>99.87585042584615</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5144032921810699</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02880658436214</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>17019.3250964519</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.004738116620359448</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>99.87449968575913</v>
+      </c>
+      <c r="C4" t="n">
         <v>2.05761316872428</v>
       </c>
+      <c r="D4" t="n">
+        <v>2.05761316872428</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.88888888888889</v>
+      </c>
       <c r="F4" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>1.02880658436214</t>
         </is>
       </c>
+      <c r="H4" t="n">
+        <v>34013.11198130637</v>
+      </c>
       <c r="I4" t="n">
+        <v>0.01418620328183344</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>99.87180023242729</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.62962962962963</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.08641975308642</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>51031.61191665019</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02836165103645849</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>99.8677501044974</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.230452674897119</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.11522633744856</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>64688.6404626334</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.04633071783163444</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>99.86261608541307</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.86008230452675</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.1440329218107</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>80944.00083341627</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06881516250758339</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>99.8561919583628</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.17283950617284</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9716506630086876</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>92309.36376947795</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.09445665244354949</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>99.84886581838109</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.17718335619571</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.144490169181528</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8816830090264018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>97987.04144175485</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1216752750662592</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>99.84108906906032</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32.76251502989044</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.02617317820793</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8000456933758091</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>101081.4420481137</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1497534534129574</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>99.83306673238984</v>
+      </c>
+      <c r="C11" t="n">
+        <v>41.18871105478627</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.826218871583739</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7442224083688047</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>104463.2727333196</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1787710291722129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>99.82477599645861</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50.38704113055441</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.570441279952544</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7028767190149822</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>67147.86387781269</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1974232135827164</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>99.81944680091276</v>
+      </c>
+      <c r="C13" t="n">
+        <v>60.30892077001444</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10.27331799896753</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6638280124030387</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>65305.45819627993</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2155636186372386</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>99.81426382804005</v>
+      </c>
+      <c r="C14" t="n">
+        <v>70.91415277518348</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.93714601137057</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6269486783806476</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>151428.2202920164</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2576270131627987</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>99.80224571531846</v>
+      </c>
+      <c r="C15" t="n">
+        <v>82.16477312574438</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.56409468975121</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6091420889097003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>157524.8125526304</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3013839055385293</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>99.78974374606825</v>
+      </c>
+      <c r="C16" t="n">
+        <v>94.03343885995044</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.17323677866091</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.598193456592696</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>224426.0499971094</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3637244749821708</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>99.77193215479866</v>
+      </c>
+      <c r="C17" t="n">
+        <v>106.5057723669077</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.77143023525361</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5874416134186443</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>254838.62966634</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4345129832228208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Zeit [s]</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SoC [%]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Zurückgelegte Distanz [m]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ist-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Soll-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Steigung im Intervall [t, t+1) [%]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Gewählte Beschleunigung im Intervall [t, t+1) [m/s²]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Abgerufene Batterieleistung im Intervall [t, t+1) [W]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Kumulierter Energieverbrauch nach Intervall [t, t+1) [kWh]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>99.7517068667299</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>37.89473684210527</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.052631578947369e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>99.75170385921109</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5144032921810699</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02880658436214</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>17019.3250964519</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.004738116620359448</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>99.75035311912409</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.05761316872428</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.05761316872428</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>34013.11198130637</v>
       </c>
-      <c r="J4" t="n">
+      <c r="I4" t="n">
         <v>0.01418620328183344</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>99.74765366579223</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.62962962962963</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.08641975308642</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>51031.61191665019</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02836165103645849</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>99.74360353786234</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.230452674897119</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.11522633744856</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>64688.6404626334</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.04633071783163444</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>99.73846951877802</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.86008230452675</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.1440329218107</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>80944.00083341627</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06881516250758339</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>99.73204539172772</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.17283950617284</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9716506630086876</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>92309.36376947795</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.09445665244354949</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>99.72471925174602</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.17718335619571</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.144490169181528</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8816830090264018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>97987.04144175485</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1216752750662592</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>99.71694250242525</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32.76251502989044</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.02617317820793</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8000456933758091</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>101081.4420481137</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1497534534129574</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>99.70892016575478</v>
+      </c>
+      <c r="C11" t="n">
+        <v>41.18871105478627</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.826218871583739</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7442224083688047</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>104463.2727333196</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1787710291722129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>99.70062942982356</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50.38704113055441</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.570441279952544</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7028767190149822</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>67147.86387781269</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1974232135827164</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>99.69530023427771</v>
+      </c>
+      <c r="C13" t="n">
+        <v>60.30892077001444</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10.27331799896753</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6638280124030387</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>65305.45819627993</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2155636186372386</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>99.69011726140499</v>
+      </c>
+      <c r="C14" t="n">
+        <v>70.91415277518348</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.93714601137057</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6269486783806476</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>151428.2202920164</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2576270131627987</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>99.6780991486834</v>
+      </c>
+      <c r="C15" t="n">
+        <v>82.16477312574438</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.56409468975121</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6091420889097003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>157524.8125526304</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3013839055385293</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>99.66559717943321</v>
+      </c>
+      <c r="C16" t="n">
+        <v>94.03343885995044</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.17323677866091</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.598193456592696</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>224426.0499971094</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3637244749821708</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>99.6477855881636</v>
+      </c>
+      <c r="C17" t="n">
+        <v>106.5057723669077</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.77143023525361</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5874416134186443</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>254838.62966634</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4345129832228208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Zeit [s]</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SoC [%]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Zurückgelegte Distanz [m]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ist-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Soll-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Steigung im Intervall [t, t+1) [%]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Gewählte Beschleunigung im Intervall [t, t+1) [m/s²]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Abgerufene Batterieleistung im Intervall [t, t+1) [W]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Kumulierter Energieverbrauch nach Intervall [t, t+1) [kWh]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>99.62756030009484</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>37.89473684210527</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.052631578947369e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>99.62755729257604</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5144032921810699</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02880658436214</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>17019.3250964519</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.004738116620359448</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>99.62620655248901</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.05761316872428</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.05761316872428</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>34013.11198130637</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01418620328183344</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
+      <c r="B5" t="n">
+        <v>99.62350709915717</v>
+      </c>
       <c r="C5" t="n">
-        <v>99.99189667113244</v>
+        <v>4.62962962962963</v>
       </c>
       <c r="D5" t="n">
-        <v>4.62962962962963</v>
+        <v>3.08641975308642</v>
       </c>
       <c r="E5" t="n">
-        <v>3.08641975308642</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="F5" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>1.02880658436214</t>
         </is>
       </c>
+      <c r="H5" t="n">
+        <v>51031.61191665019</v>
+      </c>
       <c r="I5" t="n">
-        <v>51031.61191665019</v>
-      </c>
-      <c r="J5" t="n">
         <v>0.02836165103645849</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>99.61945697122728</v>
       </c>
       <c r="C6" t="n">
-        <v>99.98676265204811</v>
+        <v>8.230452674897119</v>
       </c>
       <c r="D6" t="n">
-        <v>8.230452674897119</v>
+        <v>4.11522633744856</v>
       </c>
       <c r="E6" t="n">
-        <v>4.11522633744856</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="F6" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="G6" t="n">
         <v>-0.6</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>1.02880658436214</t>
         </is>
       </c>
+      <c r="H6" t="n">
+        <v>64688.6404626334</v>
+      </c>
       <c r="I6" t="n">
-        <v>64688.6404626334</v>
-      </c>
-      <c r="J6" t="n">
         <v>0.04633071783163444</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>99.61432295214296</v>
       </c>
       <c r="C7" t="n">
-        <v>99.98033852499783</v>
+        <v>12.86008230452675</v>
       </c>
       <c r="D7" t="n">
-        <v>12.86008230452675</v>
+        <v>5.1440329218107</v>
       </c>
       <c r="E7" t="n">
-        <v>5.1440329218107</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="F7" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="G7" t="n">
         <v>-0.6</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>1.02880658436214</t>
         </is>
       </c>
+      <c r="H7" t="n">
+        <v>80944.00083341627</v>
+      </c>
       <c r="I7" t="n">
-        <v>80944.00083341627</v>
-      </c>
-      <c r="J7" t="n">
         <v>0.06881516250758339</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>99.60789882509268</v>
       </c>
       <c r="C8" t="n">
-        <v>99.97301238501612</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="D8" t="n">
-        <v>18.51851851851852</v>
+        <v>6.17283950617284</v>
       </c>
       <c r="E8" t="n">
-        <v>6.17283950617284</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="F8" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="G8" t="n">
         <v>-0.6</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>0.9716506630086876</t>
         </is>
       </c>
+      <c r="H8" t="n">
+        <v>92309.36376947795</v>
+      </c>
       <c r="I8" t="n">
-        <v>92309.36376947795</v>
-      </c>
-      <c r="J8" t="n">
         <v>0.09445665244354949</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>99.60057268511096</v>
       </c>
       <c r="C9" t="n">
-        <v>99.96523563569536</v>
+        <v>25.17718335619571</v>
       </c>
       <c r="D9" t="n">
-        <v>25.17718335619571</v>
+        <v>7.144490169181528</v>
       </c>
       <c r="E9" t="n">
-        <v>7.144490169181528</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="F9" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="G9" t="n">
         <v>-0.6</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>0.8816830090264018</t>
         </is>
       </c>
+      <c r="H9" t="n">
+        <v>97987.04144175485</v>
+      </c>
       <c r="I9" t="n">
-        <v>97987.04144175485</v>
-      </c>
-      <c r="J9" t="n">
         <v>0.1216752750662592</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>99.59279593579021</v>
       </c>
       <c r="C10" t="n">
-        <v>99.95721329902489</v>
+        <v>32.76251502989044</v>
       </c>
       <c r="D10" t="n">
-        <v>32.76251502989044</v>
+        <v>8.02617317820793</v>
       </c>
       <c r="E10" t="n">
-        <v>8.02617317820793</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="F10" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="G10" t="n">
         <v>-0.6</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>0.8000456933758091</t>
         </is>
       </c>
+      <c r="H10" t="n">
+        <v>101081.4420481137</v>
+      </c>
       <c r="I10" t="n">
-        <v>101081.4420481137</v>
-      </c>
-      <c r="J10" t="n">
         <v>0.1497534534129574</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>99.58477359911973</v>
       </c>
       <c r="C11" t="n">
-        <v>99.94892256309366</v>
+        <v>41.18871105478627</v>
       </c>
       <c r="D11" t="n">
-        <v>41.18871105478627</v>
+        <v>8.826218871583739</v>
       </c>
       <c r="E11" t="n">
-        <v>8.826218871583739</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="F11" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="G11" t="n">
         <v>-0.6</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>0.7442224083688047</t>
         </is>
       </c>
+      <c r="H11" t="n">
+        <v>104463.2727333196</v>
+      </c>
       <c r="I11" t="n">
-        <v>104463.2727333196</v>
-      </c>
-      <c r="J11" t="n">
         <v>0.1787710291722129</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>99.5764828631885</v>
       </c>
       <c r="C12" t="n">
-        <v>99.94359336754781</v>
+        <v>50.38704113055441</v>
       </c>
       <c r="D12" t="n">
-        <v>50.38704113055441</v>
+        <v>9.570441279952544</v>
       </c>
       <c r="E12" t="n">
-        <v>9.570441279952544</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="F12" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="G12" t="n">
         <v>-3.7</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>0.7028767190149822</t>
         </is>
       </c>
+      <c r="H12" t="n">
+        <v>67147.86387781269</v>
+      </c>
       <c r="I12" t="n">
-        <v>67147.86387781269</v>
-      </c>
-      <c r="J12" t="n">
         <v>0.1974232135827164</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>99.57115366764265</v>
       </c>
       <c r="C13" t="n">
-        <v>99.93841039467509</v>
+        <v>60.30892077001444</v>
       </c>
       <c r="D13" t="n">
-        <v>60.30892077001444</v>
+        <v>10.27331799896753</v>
       </c>
       <c r="E13" t="n">
-        <v>10.27331799896753</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="F13" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="G13" t="n">
         <v>-3.8</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>0.6638280124030387</t>
         </is>
       </c>
+      <c r="H13" t="n">
+        <v>65305.45819627993</v>
+      </c>
       <c r="I13" t="n">
-        <v>65305.45819627993</v>
-      </c>
-      <c r="J13" t="n">
         <v>0.2155636186372386</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>99.56597069476993</v>
       </c>
       <c r="C14" t="n">
-        <v>99.9263922819535</v>
+        <v>70.91415277518348</v>
       </c>
       <c r="D14" t="n">
-        <v>70.91415277518348</v>
+        <v>10.93714601137057</v>
       </c>
       <c r="E14" t="n">
-        <v>10.93714601137057</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="F14" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="G14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>0.6269486783806476</t>
         </is>
       </c>
+      <c r="H14" t="n">
+        <v>151428.2202920164</v>
+      </c>
       <c r="I14" t="n">
-        <v>151428.2202920164</v>
-      </c>
-      <c r="J14" t="n">
         <v>0.2576270131627987</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>99.55395258204834</v>
       </c>
       <c r="C15" t="n">
-        <v>99.9138903127033</v>
+        <v>82.16477312574438</v>
       </c>
       <c r="D15" t="n">
-        <v>82.16477312574438</v>
+        <v>11.56409468975121</v>
       </c>
       <c r="E15" t="n">
-        <v>11.56409468975121</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="F15" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="G15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>0.6091420889097003</t>
         </is>
       </c>
+      <c r="H15" t="n">
+        <v>157524.8125526304</v>
+      </c>
       <c r="I15" t="n">
-        <v>157524.8125526304</v>
-      </c>
-      <c r="J15" t="n">
         <v>0.3013839055385293</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>99.54145061279814</v>
       </c>
       <c r="C16" t="n">
-        <v>99.8960787214337</v>
+        <v>94.03343885995044</v>
       </c>
       <c r="D16" t="n">
-        <v>94.03343885995044</v>
+        <v>12.17323677866091</v>
       </c>
       <c r="E16" t="n">
-        <v>12.17323677866091</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="F16" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="G16" t="n">
         <v>5.6</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>0.598193456592696</t>
         </is>
       </c>
+      <c r="H16" t="n">
+        <v>224426.0499971094</v>
+      </c>
       <c r="I16" t="n">
-        <v>224426.0499971094</v>
-      </c>
-      <c r="J16" t="n">
         <v>0.3637244749821708</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>99.52363902152854</v>
       </c>
       <c r="C17" t="n">
-        <v>99.87585343336495</v>
+        <v>106.5057723669077</v>
       </c>
       <c r="D17" t="n">
-        <v>106.5057723669077</v>
+        <v>12.77143023525361</v>
       </c>
       <c r="E17" t="n">
-        <v>12.77143023525361</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="F17" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="G17" t="n">
         <v>6.8</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>0.5874416134186443</t>
         </is>
       </c>
+      <c r="H17" t="n">
+        <v>254838.62966634</v>
+      </c>
       <c r="I17" t="n">
-        <v>254838.62966634</v>
-      </c>
-      <c r="J17" t="n">
         <v>0.4345129832228208</v>
       </c>
     </row>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -11,6 +11,10 @@
     <sheet name="Umlauf Nr. 2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Umlauf Nr. 3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Umlauf Nr. 4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Umlauf Nr. 11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Umlauf Nr. 21" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Umlauf Nr. 31" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Umlauf Nr. 41" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2665,4 +2669,2252 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Zeit [s]</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SoC [%]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Zurückgelegte Distanz [m]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ist-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Soll-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Steigung im Intervall [t, t+1) [%]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Gewählte Beschleunigung im Intervall [t, t+1) [m/s²]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Abgerufene Batterieleistung im Intervall [t, t+1) [W]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Kumulierter Energieverbrauch nach Intervall [t, t+1) [kWh]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>37.89473684210527</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.052631578947369e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>99.9999969924812</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5144032921810699</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02880658436214</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>17019.3250964519</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.004738116620359448</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>99.99864625239418</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.05761316872428</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.05761316872428</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>34013.11198130637</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01418620328183344</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>99.99594679906232</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.62962962962963</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.08641975308642</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>51031.61191665019</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02836165103645849</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>99.99189667113244</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.230452674897119</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.11522633744856</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>64688.6404626334</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.04633071783163444</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>99.98676265204811</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.86008230452675</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.1440329218107</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>80944.00083341627</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06881516250758339</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>99.98033852499783</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.17283950617284</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9716506630086876</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>92309.36376947795</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.09445665244354949</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>99.97301238501612</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.17718335619571</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.144490169181528</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8816830090264018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>97987.04144175485</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1216752750662592</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>99.96523563569536</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32.76251502989044</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.02617317820793</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8000456933758091</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>101081.4420481137</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1497534534129574</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>99.95721329902489</v>
+      </c>
+      <c r="C11" t="n">
+        <v>41.18871105478627</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.826218871583739</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7442224083688047</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>104463.2727333196</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1787710291722129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>99.94892256309366</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50.38704113055441</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.570441279952544</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7028767190149822</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>67147.86387781269</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1974232135827164</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>99.94359336754781</v>
+      </c>
+      <c r="C13" t="n">
+        <v>60.30892077001444</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10.27331799896753</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6638280124030387</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>65305.45819627993</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2155636186372386</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>99.93841039467509</v>
+      </c>
+      <c r="C14" t="n">
+        <v>70.91415277518348</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.93714601137057</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6269486783806476</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>151428.2202920164</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2576270131627987</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>99.9263922819535</v>
+      </c>
+      <c r="C15" t="n">
+        <v>82.16477312574438</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.56409468975121</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6091420889097003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>157524.8125526304</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3013839055385293</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>99.9138903127033</v>
+      </c>
+      <c r="C16" t="n">
+        <v>94.03343885995044</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.17323677866091</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.598193456592696</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>224426.0499971094</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3637244749821708</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>99.8960787214337</v>
+      </c>
+      <c r="C17" t="n">
+        <v>106.5057723669077</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.77143023525361</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5874416134186443</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>254838.62966634</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4345129832228208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Zeit [s]</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SoC [%]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Zurückgelegte Distanz [m]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ist-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Soll-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Steigung im Intervall [t, t+1) [%]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Gewählte Beschleunigung im Intervall [t, t+1) [m/s²]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Abgerufene Batterieleistung im Intervall [t, t+1) [W]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Kumulierter Energieverbrauch nach Intervall [t, t+1) [kWh]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>99.87585343336495</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>37.89473684210527</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.052631578947369e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>99.87585042584615</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5144032921810699</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02880658436214</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>17019.3250964519</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.004738116620359448</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>99.87449968575913</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.05761316872428</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.05761316872428</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>34013.11198130637</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01418620328183344</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>99.87180023242729</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.62962962962963</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.08641975308642</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>51031.61191665019</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02836165103645849</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>99.8677501044974</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.230452674897119</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.11522633744856</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>64688.6404626334</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.04633071783163444</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>99.86261608541307</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.86008230452675</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.1440329218107</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>80944.00083341627</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06881516250758339</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>99.8561919583628</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.17283950617284</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9716506630086876</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>92309.36376947795</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.09445665244354949</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>99.84886581838109</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.17718335619571</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.144490169181528</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8816830090264018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>97987.04144175485</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1216752750662592</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>99.84108906906032</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32.76251502989044</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.02617317820793</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8000456933758091</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>101081.4420481137</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1497534534129574</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>99.83306673238984</v>
+      </c>
+      <c r="C11" t="n">
+        <v>41.18871105478627</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.826218871583739</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7442224083688047</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>104463.2727333196</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1787710291722129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>99.82477599645861</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50.38704113055441</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.570441279952544</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7028767190149822</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>67147.86387781269</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1974232135827164</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>99.81944680091276</v>
+      </c>
+      <c r="C13" t="n">
+        <v>60.30892077001444</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10.27331799896753</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6638280124030387</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>65305.45819627993</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2155636186372386</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>99.81426382804005</v>
+      </c>
+      <c r="C14" t="n">
+        <v>70.91415277518348</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.93714601137057</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6269486783806476</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>151428.2202920164</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2576270131627987</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>99.80224571531846</v>
+      </c>
+      <c r="C15" t="n">
+        <v>82.16477312574438</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.56409468975121</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6091420889097003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>157524.8125526304</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3013839055385293</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>99.78974374606825</v>
+      </c>
+      <c r="C16" t="n">
+        <v>94.03343885995044</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.17323677866091</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.598193456592696</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>224426.0499971094</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3637244749821708</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>99.77193215479866</v>
+      </c>
+      <c r="C17" t="n">
+        <v>106.5057723669077</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.77143023525361</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5874416134186443</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>254838.62966634</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4345129832228208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Zeit [s]</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SoC [%]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Zurückgelegte Distanz [m]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ist-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Soll-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Steigung im Intervall [t, t+1) [%]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Gewählte Beschleunigung im Intervall [t, t+1) [m/s²]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Abgerufene Batterieleistung im Intervall [t, t+1) [W]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Kumulierter Energieverbrauch nach Intervall [t, t+1) [kWh]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>99.7517068667299</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>37.89473684210527</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.052631578947369e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>99.75170385921109</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5144032921810699</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02880658436214</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>17019.3250964519</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.004738116620359448</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>99.75035311912409</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.05761316872428</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.05761316872428</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>34013.11198130637</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01418620328183344</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>99.74765366579223</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.62962962962963</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.08641975308642</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>51031.61191665019</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02836165103645849</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>99.74360353786234</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.230452674897119</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.11522633744856</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>64688.6404626334</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.04633071783163444</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>99.73846951877802</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.86008230452675</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.1440329218107</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>80944.00083341627</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06881516250758339</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>99.73204539172772</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.17283950617284</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9716506630086876</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>92309.36376947795</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.09445665244354949</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>99.72471925174602</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.17718335619571</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.144490169181528</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8816830090264018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>97987.04144175485</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1216752750662592</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>99.71694250242525</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32.76251502989044</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.02617317820793</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8000456933758091</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>101081.4420481137</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1497534534129574</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>99.70892016575478</v>
+      </c>
+      <c r="C11" t="n">
+        <v>41.18871105478627</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.826218871583739</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7442224083688047</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>104463.2727333196</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1787710291722129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>99.70062942982356</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50.38704113055441</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.570441279952544</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7028767190149822</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>67147.86387781269</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1974232135827164</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>99.69530023427771</v>
+      </c>
+      <c r="C13" t="n">
+        <v>60.30892077001444</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10.27331799896753</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6638280124030387</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>65305.45819627993</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2155636186372386</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>99.69011726140499</v>
+      </c>
+      <c r="C14" t="n">
+        <v>70.91415277518348</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.93714601137057</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6269486783806476</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>151428.2202920164</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2576270131627987</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>99.6780991486834</v>
+      </c>
+      <c r="C15" t="n">
+        <v>82.16477312574438</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.56409468975121</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6091420889097003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>157524.8125526304</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3013839055385293</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>99.66559717943321</v>
+      </c>
+      <c r="C16" t="n">
+        <v>94.03343885995044</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.17323677866091</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.598193456592696</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>224426.0499971094</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3637244749821708</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>99.6477855881636</v>
+      </c>
+      <c r="C17" t="n">
+        <v>106.5057723669077</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.77143023525361</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5874416134186443</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>254838.62966634</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4345129832228208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Zeit [s]</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SoC [%]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Zurückgelegte Distanz [m]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ist-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Soll-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Steigung im Intervall [t, t+1) [%]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Gewählte Beschleunigung im Intervall [t, t+1) [m/s²]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Abgerufene Batterieleistung im Intervall [t, t+1) [W]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Kumulierter Energieverbrauch nach Intervall [t, t+1) [kWh]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>99.62756030009484</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>37.89473684210527</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.052631578947369e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>99.62755729257604</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5144032921810699</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02880658436214</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>17019.3250964519</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.004738116620359448</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>99.62620655248901</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.05761316872428</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.05761316872428</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>34013.11198130637</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01418620328183344</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>99.62350709915717</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.62962962962963</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.08641975308642</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>51031.61191665019</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02836165103645849</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>99.61945697122728</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.230452674897119</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.11522633744856</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>64688.6404626334</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.04633071783163444</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>99.61432295214296</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.86008230452675</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.1440329218107</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.02880658436214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>80944.00083341627</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06881516250758339</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>99.60789882509268</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.17283950617284</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9716506630086876</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>92309.36376947795</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.09445665244354949</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>99.60057268511096</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.17718335619571</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.144490169181528</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8816830090264018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>97987.04144175485</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1216752750662592</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>99.59279593579021</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32.76251502989044</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.02617317820793</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8000456933758091</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>101081.4420481137</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1497534534129574</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>99.58477359911973</v>
+      </c>
+      <c r="C11" t="n">
+        <v>41.18871105478627</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.826218871583739</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7442224083688047</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>104463.2727333196</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1787710291722129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>99.5764828631885</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50.38704113055441</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.570441279952544</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7028767190149822</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>67147.86387781269</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1974232135827164</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>99.57115366764265</v>
+      </c>
+      <c r="C13" t="n">
+        <v>60.30892077001444</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10.27331799896753</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6638280124030387</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>65305.45819627993</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2155636186372386</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>99.56597069476993</v>
+      </c>
+      <c r="C14" t="n">
+        <v>70.91415277518348</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.93714601137057</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6269486783806476</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>151428.2202920164</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2576270131627987</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>99.55395258204834</v>
+      </c>
+      <c r="C15" t="n">
+        <v>82.16477312574438</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.56409468975121</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6091420889097003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>157524.8125526304</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3013839055385293</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>99.54145061279814</v>
+      </c>
+      <c r="C16" t="n">
+        <v>94.03343885995044</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.17323677866091</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.598193456592696</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>224426.0499971094</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3637244749821708</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>99.52363902152854</v>
+      </c>
+      <c r="C17" t="n">
+        <v>106.5057723669077</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.77143023525361</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5874416134186443</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>254838.62966634</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4345129832228208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Output.xlsx
+++ b/Output.xlsx
@@ -11,10 +11,6 @@
     <sheet name="Umlauf Nr. 2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Umlauf Nr. 3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Umlauf Nr. 4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Umlauf Nr. 11" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Umlauf Nr. 21" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Umlauf Nr. 31" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Umlauf Nr. 41" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2669,2252 +2665,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Zeit [s]</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SoC [%]</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Zurückgelegte Distanz [m]</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ist-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Soll-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Steigung im Intervall [t, t+1) [%]</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Gewählte Beschleunigung im Intervall [t, t+1) [m/s²]</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Abgerufene Batterieleistung im Intervall [t, t+1) [W]</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Kumulierter Energieverbrauch nach Intervall [t, t+1) [kWh]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>37.89473684210527</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.052631578947369e-05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>99.9999969924812</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5144032921810699</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.02880658436214</v>
-      </c>
-      <c r="E3" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>17019.3250964519</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.004738116620359448</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>99.99864625239418</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.05761316872428</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.05761316872428</v>
-      </c>
-      <c r="E4" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>34013.11198130637</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01418620328183344</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>99.99594679906232</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.62962962962963</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.08641975308642</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>51031.61191665019</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.02836165103645849</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>99.99189667113244</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.230452674897119</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.11522633744856</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>64688.6404626334</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.04633071783163444</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>99.98676265204811</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12.86008230452675</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.1440329218107</v>
-      </c>
-      <c r="E7" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>80944.00083341627</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.06881516250758339</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>99.98033852499783</v>
-      </c>
-      <c r="C8" t="n">
-        <v>18.51851851851852</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.17283950617284</v>
-      </c>
-      <c r="E8" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.9716506630086876</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>92309.36376947795</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.09445665244354949</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>99.97301238501612</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25.17718335619571</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.144490169181528</v>
-      </c>
-      <c r="E9" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8816830090264018</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>97987.04144175485</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1216752750662592</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>99.96523563569536</v>
-      </c>
-      <c r="C10" t="n">
-        <v>32.76251502989044</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8.02617317820793</v>
-      </c>
-      <c r="E10" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.8000456933758091</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>101081.4420481137</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.1497534534129574</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>99.95721329902489</v>
-      </c>
-      <c r="C11" t="n">
-        <v>41.18871105478627</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8.826218871583739</v>
-      </c>
-      <c r="E11" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.7442224083688047</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>104463.2727333196</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.1787710291722129</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>99.94892256309366</v>
-      </c>
-      <c r="C12" t="n">
-        <v>50.38704113055441</v>
-      </c>
-      <c r="D12" t="n">
-        <v>9.570441279952544</v>
-      </c>
-      <c r="E12" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-3.7</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.7028767190149822</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>67147.86387781269</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.1974232135827164</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>99.94359336754781</v>
-      </c>
-      <c r="C13" t="n">
-        <v>60.30892077001444</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10.27331799896753</v>
-      </c>
-      <c r="E13" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.6638280124030387</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>65305.45819627993</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.2155636186372386</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>99.93841039467509</v>
-      </c>
-      <c r="C14" t="n">
-        <v>70.91415277518348</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10.93714601137057</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.6269486783806476</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>151428.2202920164</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.2576270131627987</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>99.9263922819535</v>
-      </c>
-      <c r="C15" t="n">
-        <v>82.16477312574438</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11.56409468975121</v>
-      </c>
-      <c r="E15" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.6091420889097003</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>157524.8125526304</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.3013839055385293</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>99.9138903127033</v>
-      </c>
-      <c r="C16" t="n">
-        <v>94.03343885995044</v>
-      </c>
-      <c r="D16" t="n">
-        <v>12.17323677866091</v>
-      </c>
-      <c r="E16" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.598193456592696</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>224426.0499971094</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.3637244749821708</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>99.8960787214337</v>
-      </c>
-      <c r="C17" t="n">
-        <v>106.5057723669077</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12.77143023525361</v>
-      </c>
-      <c r="E17" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5874416134186443</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>254838.62966634</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.4345129832228208</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Zeit [s]</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SoC [%]</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Zurückgelegte Distanz [m]</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ist-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Soll-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Steigung im Intervall [t, t+1) [%]</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Gewählte Beschleunigung im Intervall [t, t+1) [m/s²]</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Abgerufene Batterieleistung im Intervall [t, t+1) [W]</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Kumulierter Energieverbrauch nach Intervall [t, t+1) [kWh]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>99.87585343336495</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>37.89473684210527</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.052631578947369e-05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>99.87585042584615</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5144032921810699</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.02880658436214</v>
-      </c>
-      <c r="E3" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>17019.3250964519</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.004738116620359448</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>99.87449968575913</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.05761316872428</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.05761316872428</v>
-      </c>
-      <c r="E4" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>34013.11198130637</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01418620328183344</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>99.87180023242729</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.62962962962963</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.08641975308642</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>51031.61191665019</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.02836165103645849</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>99.8677501044974</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.230452674897119</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.11522633744856</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>64688.6404626334</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.04633071783163444</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>99.86261608541307</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12.86008230452675</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.1440329218107</v>
-      </c>
-      <c r="E7" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>80944.00083341627</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.06881516250758339</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>99.8561919583628</v>
-      </c>
-      <c r="C8" t="n">
-        <v>18.51851851851852</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.17283950617284</v>
-      </c>
-      <c r="E8" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.9716506630086876</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>92309.36376947795</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.09445665244354949</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>99.84886581838109</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25.17718335619571</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.144490169181528</v>
-      </c>
-      <c r="E9" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8816830090264018</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>97987.04144175485</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1216752750662592</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>99.84108906906032</v>
-      </c>
-      <c r="C10" t="n">
-        <v>32.76251502989044</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8.02617317820793</v>
-      </c>
-      <c r="E10" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.8000456933758091</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>101081.4420481137</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.1497534534129574</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>99.83306673238984</v>
-      </c>
-      <c r="C11" t="n">
-        <v>41.18871105478627</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8.826218871583739</v>
-      </c>
-      <c r="E11" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.7442224083688047</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>104463.2727333196</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.1787710291722129</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>99.82477599645861</v>
-      </c>
-      <c r="C12" t="n">
-        <v>50.38704113055441</v>
-      </c>
-      <c r="D12" t="n">
-        <v>9.570441279952544</v>
-      </c>
-      <c r="E12" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-3.7</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.7028767190149822</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>67147.86387781269</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.1974232135827164</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>99.81944680091276</v>
-      </c>
-      <c r="C13" t="n">
-        <v>60.30892077001444</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10.27331799896753</v>
-      </c>
-      <c r="E13" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.6638280124030387</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>65305.45819627993</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.2155636186372386</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>99.81426382804005</v>
-      </c>
-      <c r="C14" t="n">
-        <v>70.91415277518348</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10.93714601137057</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.6269486783806476</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>151428.2202920164</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.2576270131627987</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>99.80224571531846</v>
-      </c>
-      <c r="C15" t="n">
-        <v>82.16477312574438</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11.56409468975121</v>
-      </c>
-      <c r="E15" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.6091420889097003</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>157524.8125526304</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.3013839055385293</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>99.78974374606825</v>
-      </c>
-      <c r="C16" t="n">
-        <v>94.03343885995044</v>
-      </c>
-      <c r="D16" t="n">
-        <v>12.17323677866091</v>
-      </c>
-      <c r="E16" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.598193456592696</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>224426.0499971094</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.3637244749821708</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>99.77193215479866</v>
-      </c>
-      <c r="C17" t="n">
-        <v>106.5057723669077</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12.77143023525361</v>
-      </c>
-      <c r="E17" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5874416134186443</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>254838.62966634</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.4345129832228208</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Zeit [s]</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SoC [%]</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Zurückgelegte Distanz [m]</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ist-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Soll-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Steigung im Intervall [t, t+1) [%]</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Gewählte Beschleunigung im Intervall [t, t+1) [m/s²]</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Abgerufene Batterieleistung im Intervall [t, t+1) [W]</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Kumulierter Energieverbrauch nach Intervall [t, t+1) [kWh]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>99.7517068667299</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>37.89473684210527</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.052631578947369e-05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>99.75170385921109</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5144032921810699</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.02880658436214</v>
-      </c>
-      <c r="E3" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>17019.3250964519</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.004738116620359448</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>99.75035311912409</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.05761316872428</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.05761316872428</v>
-      </c>
-      <c r="E4" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>34013.11198130637</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01418620328183344</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>99.74765366579223</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.62962962962963</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.08641975308642</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>51031.61191665019</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.02836165103645849</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>99.74360353786234</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.230452674897119</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.11522633744856</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>64688.6404626334</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.04633071783163444</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>99.73846951877802</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12.86008230452675</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.1440329218107</v>
-      </c>
-      <c r="E7" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>80944.00083341627</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.06881516250758339</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>99.73204539172772</v>
-      </c>
-      <c r="C8" t="n">
-        <v>18.51851851851852</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.17283950617284</v>
-      </c>
-      <c r="E8" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.9716506630086876</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>92309.36376947795</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.09445665244354949</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>99.72471925174602</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25.17718335619571</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.144490169181528</v>
-      </c>
-      <c r="E9" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8816830090264018</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>97987.04144175485</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1216752750662592</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>99.71694250242525</v>
-      </c>
-      <c r="C10" t="n">
-        <v>32.76251502989044</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8.02617317820793</v>
-      </c>
-      <c r="E10" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.8000456933758091</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>101081.4420481137</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.1497534534129574</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>99.70892016575478</v>
-      </c>
-      <c r="C11" t="n">
-        <v>41.18871105478627</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8.826218871583739</v>
-      </c>
-      <c r="E11" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.7442224083688047</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>104463.2727333196</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.1787710291722129</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>99.70062942982356</v>
-      </c>
-      <c r="C12" t="n">
-        <v>50.38704113055441</v>
-      </c>
-      <c r="D12" t="n">
-        <v>9.570441279952544</v>
-      </c>
-      <c r="E12" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-3.7</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.7028767190149822</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>67147.86387781269</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.1974232135827164</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>99.69530023427771</v>
-      </c>
-      <c r="C13" t="n">
-        <v>60.30892077001444</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10.27331799896753</v>
-      </c>
-      <c r="E13" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.6638280124030387</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>65305.45819627993</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.2155636186372386</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>99.69011726140499</v>
-      </c>
-      <c r="C14" t="n">
-        <v>70.91415277518348</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10.93714601137057</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.6269486783806476</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>151428.2202920164</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.2576270131627987</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>99.6780991486834</v>
-      </c>
-      <c r="C15" t="n">
-        <v>82.16477312574438</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11.56409468975121</v>
-      </c>
-      <c r="E15" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.6091420889097003</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>157524.8125526304</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.3013839055385293</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>99.66559717943321</v>
-      </c>
-      <c r="C16" t="n">
-        <v>94.03343885995044</v>
-      </c>
-      <c r="D16" t="n">
-        <v>12.17323677866091</v>
-      </c>
-      <c r="E16" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.598193456592696</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>224426.0499971094</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.3637244749821708</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>99.6477855881636</v>
-      </c>
-      <c r="C17" t="n">
-        <v>106.5057723669077</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12.77143023525361</v>
-      </c>
-      <c r="E17" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5874416134186443</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>254838.62966634</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.4345129832228208</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Zeit [s]</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SoC [%]</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Zurückgelegte Distanz [m]</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ist-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Soll-Geschwindigkeit zum Zeitpunkt t [m/s]</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Steigung im Intervall [t, t+1) [%]</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Gewählte Beschleunigung im Intervall [t, t+1) [m/s²]</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Abgerufene Batterieleistung im Intervall [t, t+1) [W]</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Kumulierter Energieverbrauch nach Intervall [t, t+1) [kWh]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>99.62756030009484</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>37.89473684210527</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.052631578947369e-05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>99.62755729257604</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5144032921810699</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.02880658436214</v>
-      </c>
-      <c r="E3" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>17019.3250964519</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.004738116620359448</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>99.62620655248901</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.05761316872428</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.05761316872428</v>
-      </c>
-      <c r="E4" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>34013.11198130637</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01418620328183344</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>99.62350709915717</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.62962962962963</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.08641975308642</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>51031.61191665019</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.02836165103645849</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>99.61945697122728</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.230452674897119</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.11522633744856</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>64688.6404626334</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.04633071783163444</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>99.61432295214296</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12.86008230452675</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.1440329218107</v>
-      </c>
-      <c r="E7" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.02880658436214</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>80944.00083341627</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.06881516250758339</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>99.60789882509268</v>
-      </c>
-      <c r="C8" t="n">
-        <v>18.51851851851852</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.17283950617284</v>
-      </c>
-      <c r="E8" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.9716506630086876</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>92309.36376947795</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.09445665244354949</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>99.60057268511096</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25.17718335619571</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.144490169181528</v>
-      </c>
-      <c r="E9" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8816830090264018</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>97987.04144175485</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1216752750662592</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>99.59279593579021</v>
-      </c>
-      <c r="C10" t="n">
-        <v>32.76251502989044</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8.02617317820793</v>
-      </c>
-      <c r="E10" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.8000456933758091</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>101081.4420481137</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.1497534534129574</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>99.58477359911973</v>
-      </c>
-      <c r="C11" t="n">
-        <v>41.18871105478627</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8.826218871583739</v>
-      </c>
-      <c r="E11" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.7442224083688047</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>104463.2727333196</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.1787710291722129</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>99.5764828631885</v>
-      </c>
-      <c r="C12" t="n">
-        <v>50.38704113055441</v>
-      </c>
-      <c r="D12" t="n">
-        <v>9.570441279952544</v>
-      </c>
-      <c r="E12" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-3.7</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.7028767190149822</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>67147.86387781269</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.1974232135827164</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>99.57115366764265</v>
-      </c>
-      <c r="C13" t="n">
-        <v>60.30892077001444</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10.27331799896753</v>
-      </c>
-      <c r="E13" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.6638280124030387</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>65305.45819627993</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.2155636186372386</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>99.56597069476993</v>
-      </c>
-      <c r="C14" t="n">
-        <v>70.91415277518348</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10.93714601137057</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.6269486783806476</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>151428.2202920164</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.2576270131627987</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>99.55395258204834</v>
-      </c>
-      <c r="C15" t="n">
-        <v>82.16477312574438</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11.56409468975121</v>
-      </c>
-      <c r="E15" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.6091420889097003</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>157524.8125526304</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.3013839055385293</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>99.54145061279814</v>
-      </c>
-      <c r="C16" t="n">
-        <v>94.03343885995044</v>
-      </c>
-      <c r="D16" t="n">
-        <v>12.17323677866091</v>
-      </c>
-      <c r="E16" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.598193456592696</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>224426.0499971094</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.3637244749821708</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>99.52363902152854</v>
-      </c>
-      <c r="C17" t="n">
-        <v>106.5057723669077</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12.77143023525361</v>
-      </c>
-      <c r="E17" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5874416134186443</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>254838.62966634</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.4345129832228208</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>